--- a/S3-silicon-Sharp-Touch/fabrication/S3-pos.xlsx
+++ b/S3-silicon-Sharp-Touch/fabrication/S3-pos.xlsx
@@ -112,7 +112,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
       <selection activeCell="A1" sqref="A1:E1"/>
@@ -122,8 +122,7 @@
   <cols>
     <col min="1" max="1" style="0" width="9.142307692307693"/>
     <col min="2" max="2" style="0" width="10.427944711538462" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" style="0" width="11.999278846153848" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" style="0" width="13.14206730769231" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" style="0" width="11.999278846153848" bestFit="1" customWidth="1"/>
     <col min="5" max="256" style="0" width="9.142307692307693"/>
   </cols>
   <sheetData>
@@ -178,13 +177,13 @@
         </is>
       </c>
       <c r="B3" s="3">
-        <v>95.584299999999999</v>
+        <v>96.549999999999997</v>
       </c>
       <c r="C3" s="3">
-        <v>-70.380000999999993</v>
+        <v>-70.349999999999994</v>
       </c>
       <c r="D3" s="3">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
@@ -539,13 +538,13 @@
         </is>
       </c>
       <c r="B22" s="3">
-        <v>55.787087</v>
+        <v>30.512499999999999</v>
       </c>
       <c r="C22" s="3">
-        <v>-61.912913000000003</v>
+        <v>-60.100000000000001</v>
       </c>
       <c r="D22" s="3">
-        <v>-135</v>
+        <v>0</v>
       </c>
       <c r="E22" t="s">
         <v>1</v>
@@ -558,13 +557,13 @@
         </is>
       </c>
       <c r="B23" s="3">
-        <v>59.700000000000003</v>
+        <v>30.512499999999999</v>
       </c>
       <c r="C23" s="3">
-        <v>-61.950000000000003</v>
+        <v>-63.5</v>
       </c>
       <c r="D23" s="3">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="E23" t="s">
         <v>1</v>
@@ -611,17 +610,17 @@
     <row r="26" spans="1:5">
       <c r="A26" t="inlineStr">
         <is>
-          <t>J3</t>
+          <t>J5</t>
         </is>
       </c>
       <c r="B26" s="3">
-        <v>37.399999999999999</v>
+        <v>67.569999999999993</v>
       </c>
       <c r="C26" s="3">
-        <v>-34.130000000000003</v>
+        <v>-66.569999999999993</v>
       </c>
       <c r="D26" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E26" t="s">
         <v>1</v>
@@ -630,14 +629,14 @@
     <row r="27" spans="1:5">
       <c r="A27" t="inlineStr">
         <is>
-          <t>J5</t>
+          <t>J6</t>
         </is>
       </c>
       <c r="B27" s="3">
-        <v>67.569999999999993</v>
+        <v>89.300003000000004</v>
       </c>
       <c r="C27" s="3">
-        <v>-66.569999999999993</v>
+        <v>-38.994999999999997</v>
       </c>
       <c r="D27" s="3">
         <v>0</v>
@@ -649,14 +648,14 @@
     <row r="28" spans="1:5">
       <c r="A28" t="inlineStr">
         <is>
-          <t>J6</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="B28" s="3">
-        <v>89.300003000000004</v>
+        <v>53.659999999999997</v>
       </c>
       <c r="C28" s="3">
-        <v>-38.994999999999997</v>
+        <v>-70.280000000000001</v>
       </c>
       <c r="D28" s="3">
         <v>0</v>
@@ -668,17 +667,17 @@
     <row r="29" spans="1:5">
       <c r="A29" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>L1</t>
         </is>
       </c>
       <c r="B29" s="3">
-        <v>53.659999999999997</v>
+        <v>78.939999999999998</v>
       </c>
       <c r="C29" s="3">
-        <v>-70.280000000000001</v>
+        <v>-42.280000000000001</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="E29" t="s">
         <v>1</v>
@@ -687,17 +686,17 @@
     <row r="30" spans="1:5">
       <c r="A30" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>L2</t>
         </is>
       </c>
       <c r="B30" s="3">
-        <v>78.939999999999998</v>
+        <v>77.650000000000006</v>
       </c>
       <c r="C30" s="3">
-        <v>-42.280000000000001</v>
+        <v>-50.909999999999997</v>
       </c>
       <c r="D30" s="3">
-        <v>-90</v>
+        <v>180</v>
       </c>
       <c r="E30" t="s">
         <v>1</v>
@@ -706,14 +705,14 @@
     <row r="31" spans="1:5">
       <c r="A31" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="B31" s="3">
-        <v>77.650000000000006</v>
+        <v>38.402500000000003</v>
       </c>
       <c r="C31" s="3">
-        <v>-50.909999999999997</v>
+        <v>-43.32</v>
       </c>
       <c r="D31" s="3">
         <v>180</v>
@@ -725,17 +724,17 @@
     <row r="32" spans="1:5">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="B32" s="3">
-        <v>38.402500000000003</v>
+        <v>45.920000000000002</v>
       </c>
       <c r="C32" s="3">
         <v>-43.32</v>
       </c>
       <c r="D32" s="3">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E32" t="s">
         <v>1</v>
@@ -744,17 +743,17 @@
     <row r="33" spans="1:5">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="B33" s="3">
-        <v>45.920000000000002</v>
+        <v>45.359999999999999</v>
       </c>
       <c r="C33" s="3">
-        <v>-43.32</v>
+        <v>-60.352499999999999</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="E33" t="s">
         <v>1</v>
@@ -763,17 +762,17 @@
     <row r="34" spans="1:5">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="B34" s="3">
-        <v>45.359999999999999</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="C34" s="3">
-        <v>-60.352499999999999</v>
+        <v>-64.859999999999999</v>
       </c>
       <c r="D34" s="3">
-        <v>-90</v>
+        <v>180</v>
       </c>
       <c r="E34" t="s">
         <v>1</v>
@@ -782,17 +781,17 @@
     <row r="35" spans="1:5">
       <c r="A35" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="B35" s="3">
-        <v>37.299999999999997</v>
+        <v>76.019999999999996</v>
       </c>
       <c r="C35" s="3">
-        <v>-64.859999999999999</v>
+        <v>-45.390000000000001</v>
       </c>
       <c r="D35" s="3">
-        <v>180</v>
+        <v>-90</v>
       </c>
       <c r="E35" t="s">
         <v>1</v>
@@ -801,14 +800,14 @@
     <row r="36" spans="1:5">
       <c r="A36" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R4</t>
         </is>
       </c>
       <c r="B36" s="3">
-        <v>76.019999999999996</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="C36" s="3">
-        <v>-45.390000000000001</v>
+        <v>-55.689999999999998</v>
       </c>
       <c r="D36" s="3">
         <v>-90</v>
@@ -820,17 +819,17 @@
     <row r="37" spans="1:5">
       <c r="A37" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="B37" s="3">
-        <v>73.599999999999994</v>
+        <v>42.159999999999997</v>
       </c>
       <c r="C37" s="3">
-        <v>-55.689999999999998</v>
+        <v>-44.280000000000001</v>
       </c>
       <c r="D37" s="3">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="E37" t="s">
         <v>1</v>
@@ -839,17 +838,17 @@
     <row r="38" spans="1:5">
       <c r="A38" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="B38" s="3">
         <v>42.159999999999997</v>
       </c>
       <c r="C38" s="3">
-        <v>-44.280000000000001</v>
+        <v>-42.350000000000001</v>
       </c>
       <c r="D38" s="3">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E38" t="s">
         <v>1</v>
@@ -858,17 +857,17 @@
     <row r="39" spans="1:5">
       <c r="A39" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R7</t>
         </is>
       </c>
       <c r="B39" s="3">
-        <v>42.159999999999997</v>
+        <v>84.530000000000001</v>
       </c>
       <c r="C39" s="3">
-        <v>-42.350000000000001</v>
+        <v>-37.93</v>
       </c>
       <c r="D39" s="3">
-        <v>180</v>
+        <v>-90</v>
       </c>
       <c r="E39" t="s">
         <v>1</v>
@@ -877,14 +876,14 @@
     <row r="40" spans="1:5">
       <c r="A40" t="inlineStr">
         <is>
-          <t>R7</t>
+          <t>R8</t>
         </is>
       </c>
       <c r="B40" s="3">
-        <v>84.530000000000001</v>
+        <v>83.260000000000005</v>
       </c>
       <c r="C40" s="3">
-        <v>-37.93</v>
+        <v>-39.090000000000003</v>
       </c>
       <c r="D40" s="3">
         <v>-90</v>
@@ -896,14 +895,14 @@
     <row r="41" spans="1:5">
       <c r="A41" t="inlineStr">
         <is>
-          <t>R8</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="B41" s="3">
-        <v>83.260000000000005</v>
+        <v>83.230000000000004</v>
       </c>
       <c r="C41" s="3">
-        <v>-39.090000000000003</v>
+        <v>-41.789999999999999</v>
       </c>
       <c r="D41" s="3">
         <v>-90</v>
@@ -915,14 +914,14 @@
     <row r="42" spans="1:5">
       <c r="A42" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="B42" s="3">
-        <v>83.230000000000004</v>
+        <v>84.579999999999998</v>
       </c>
       <c r="C42" s="3">
-        <v>-41.789999999999999</v>
+        <v>-41.189999999999998</v>
       </c>
       <c r="D42" s="3">
         <v>-90</v>
@@ -934,17 +933,17 @@
     <row r="43" spans="1:5">
       <c r="A43" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R11</t>
         </is>
       </c>
       <c r="B43" s="3">
-        <v>84.579999999999998</v>
+        <v>68.129999999999995</v>
       </c>
       <c r="C43" s="3">
-        <v>-41.189999999999998</v>
+        <v>-58.509999999999998</v>
       </c>
       <c r="D43" s="3">
-        <v>-90</v>
+        <v>180</v>
       </c>
       <c r="E43" t="s">
         <v>1</v>
@@ -953,14 +952,14 @@
     <row r="44" spans="1:5">
       <c r="A44" t="inlineStr">
         <is>
-          <t>R11</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="B44" s="3">
-        <v>68.129999999999995</v>
+        <v>45.399999999999999</v>
       </c>
       <c r="C44" s="3">
-        <v>-58.509999999999998</v>
+        <v>-64.359999999999999</v>
       </c>
       <c r="D44" s="3">
         <v>180</v>
@@ -972,17 +971,17 @@
     <row r="45" spans="1:5">
       <c r="A45" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R13</t>
         </is>
       </c>
       <c r="B45" s="3">
-        <v>45.399999999999999</v>
+        <v>48.692500000000003</v>
       </c>
       <c r="C45" s="3">
-        <v>-64.359999999999999</v>
+        <v>-52.420000000000002</v>
       </c>
       <c r="D45" s="3">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E45" t="s">
         <v>1</v>
@@ -991,17 +990,17 @@
     <row r="46" spans="1:5">
       <c r="A46" t="inlineStr">
         <is>
-          <t>R13</t>
+          <t>R14</t>
         </is>
       </c>
       <c r="B46" s="3">
-        <v>48.692500000000003</v>
+        <v>54.210000000000001</v>
       </c>
       <c r="C46" s="3">
-        <v>-52.420000000000002</v>
+        <v>-56.280000000000001</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E46" t="s">
         <v>1</v>
@@ -1010,11 +1009,11 @@
     <row r="47" spans="1:5">
       <c r="A47" t="inlineStr">
         <is>
-          <t>R14</t>
+          <t>R15</t>
         </is>
       </c>
       <c r="B47" s="3">
-        <v>54.210000000000001</v>
+        <v>56.310000000000002</v>
       </c>
       <c r="C47" s="3">
         <v>-56.280000000000001</v>
@@ -1029,17 +1028,17 @@
     <row r="48" spans="1:5">
       <c r="A48" t="inlineStr">
         <is>
-          <t>R15</t>
+          <t>R16</t>
         </is>
       </c>
       <c r="B48" s="3">
-        <v>56.310000000000002</v>
+        <v>78.125</v>
       </c>
       <c r="C48" s="3">
-        <v>-56.280000000000001</v>
+        <v>-70.650000000000006</v>
       </c>
       <c r="D48" s="3">
-        <v>90</v>
+        <v>-90</v>
       </c>
       <c r="E48" t="s">
         <v>1</v>
@@ -1048,17 +1047,17 @@
     <row r="49" spans="1:5">
       <c r="A49" t="inlineStr">
         <is>
-          <t>R16</t>
+          <t>RN1</t>
         </is>
       </c>
       <c r="B49" s="3">
-        <v>78.125</v>
+        <v>63.68</v>
       </c>
       <c r="C49" s="3">
-        <v>-70.650000000000006</v>
+        <v>-49.770000000000003</v>
       </c>
       <c r="D49" s="3">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="E49" t="s">
         <v>1</v>
@@ -1067,17 +1066,17 @@
     <row r="50" spans="1:5">
       <c r="A50" t="inlineStr">
         <is>
-          <t>RN1</t>
+          <t>U1</t>
         </is>
       </c>
       <c r="B50" s="3">
-        <v>63.68</v>
+        <v>52.109999999999999</v>
       </c>
       <c r="C50" s="3">
-        <v>-49.770000000000003</v>
+        <v>-42.259999999999998</v>
       </c>
       <c r="D50" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E50" t="s">
         <v>1</v>
@@ -1086,14 +1085,14 @@
     <row r="51" spans="1:5">
       <c r="A51" t="inlineStr">
         <is>
-          <t>U1</t>
+          <t>U2</t>
         </is>
       </c>
       <c r="B51" s="3">
-        <v>52.109999999999999</v>
+        <v>49</v>
       </c>
       <c r="C51" s="3">
-        <v>-42.259999999999998</v>
+        <v>-45.909999999999997</v>
       </c>
       <c r="D51" s="3">
         <v>90</v>
@@ -1105,14 +1104,14 @@
     <row r="52" spans="1:5">
       <c r="A52" t="inlineStr">
         <is>
-          <t>U2</t>
+          <t>U3</t>
         </is>
       </c>
       <c r="B52" s="3">
-        <v>49</v>
+        <v>50.549999</v>
       </c>
       <c r="C52" s="3">
-        <v>-45.909999999999997</v>
+        <v>-56.251100000000001</v>
       </c>
       <c r="D52" s="3">
         <v>90</v>
@@ -1124,17 +1123,17 @@
     <row r="53" spans="1:5">
       <c r="A53" t="inlineStr">
         <is>
-          <t>U3</t>
+          <t>U4</t>
         </is>
       </c>
       <c r="B53" s="3">
-        <v>50.549999</v>
+        <v>84.254999999999995</v>
       </c>
       <c r="C53" s="3">
-        <v>-56.251100000000001</v>
+        <v>-70.474999999999994</v>
       </c>
       <c r="D53" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E53" t="s">
         <v>1</v>
@@ -1143,17 +1142,17 @@
     <row r="54" spans="1:5">
       <c r="A54" t="inlineStr">
         <is>
-          <t>U4</t>
+          <t>X1</t>
         </is>
       </c>
       <c r="B54" s="3">
-        <v>84.254999999999995</v>
+        <v>69.010000000000005</v>
       </c>
       <c r="C54" s="3">
-        <v>-70.474999999999994</v>
+        <v>-55.689999999999998</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E54" t="s">
         <v>1</v>
@@ -1162,38 +1161,19 @@
     <row r="55" spans="1:5">
       <c r="A55" t="inlineStr">
         <is>
-          <t>X1</t>
+          <t>Y1</t>
         </is>
       </c>
       <c r="B55" s="3">
-        <v>69.010000000000005</v>
+        <v>73.375</v>
       </c>
       <c r="C55" s="3">
-        <v>-55.689999999999998</v>
+        <v>-40.399999999999999</v>
       </c>
       <c r="D55" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Y1</t>
-        </is>
-      </c>
-      <c r="B56" s="3">
-        <v>73.375</v>
-      </c>
-      <c r="C56" s="3">
-        <v>-40.399999999999999</v>
-      </c>
-      <c r="D56" s="3">
-        <v>0</v>
-      </c>
-      <c r="E56" t="s">
         <v>1</v>
       </c>
     </row>
